--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3414094.399445789</v>
+        <v>3417499.890570237</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359931</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>161.4595633659165</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174304</v>
+        <v>72.50477145174339</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>39.89553226267466</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356726</v>
+        <v>66.70865780356738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>22.00664380783531</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>102.8354606768567</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>99.3667858381362</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>2.331420479281178</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731855</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>26.16482379965428</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>326.8252291500135</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186275</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>74.24596078692618</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>174.0080053381483</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5769297729267</v>
+        <v>41.57692977292691</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>48.96769364758811</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.6472266169458</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785986</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534528</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>25.01141625626264</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>71.49367430371645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.3671164154401</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>36.41670903609992</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>223.37369125498</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>5.947390656461772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.1670621529065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>73.08196437545563</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>68.41663978294407</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>77.27446886463689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>166.9960595602136</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>37.63394545238459</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.814783764982</v>
+        <v>1181.484267689585</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.814783764982</v>
+        <v>812.5217507491732</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.814783764982</v>
+        <v>454.2560521424227</v>
       </c>
       <c r="E2" t="n">
-        <v>786.0265311667376</v>
+        <v>68.46779954417843</v>
       </c>
       <c r="F2" t="n">
-        <v>375.0406263771301</v>
+        <v>61.52229879497496</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060718</v>
+        <v>397.0764468060704</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927205</v>
+        <v>769.5640925927182</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054136</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804444</v>
+        <v>2292.214167804436</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222164</v>
+        <v>2251.915650367391</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222164</v>
+        <v>2251.915650367391</v>
       </c>
       <c r="U2" t="n">
-        <v>1855.646326378667</v>
+        <v>2251.915650367391</v>
       </c>
       <c r="V2" t="n">
-        <v>1524.583439035096</v>
+        <v>1920.852763023821</v>
       </c>
       <c r="W2" t="n">
-        <v>1171.814783764982</v>
+        <v>1568.084107753707</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.814783764982</v>
+        <v>1568.084107753707</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.814783764982</v>
+        <v>1568.084107753707</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.3222662182066</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>667.8692369370796</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9348272758283</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
         <v>359.6973722703728</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683011</v>
+        <v>108.2048630683007</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138133</v>
+        <v>338.9063907138124</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568463</v>
+        <v>710.5174612568447</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1196.149274459033</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101584</v>
+        <v>1710.341330101581</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191456</v>
+        <v>1905.563735119898</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695913</v>
+        <v>2212.781883695906</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="S3" t="n">
-        <v>2343.222377545765</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="T3" t="n">
-        <v>2143.718694706496</v>
+        <v>2165.947627845716</v>
       </c>
       <c r="U3" t="n">
-        <v>1915.538867168706</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1680.386758936963</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.149402208761</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1218.297902003229</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.537603238275</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422844</v>
+        <v>196.5539438927022</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598913</v>
+        <v>196.5539438927022</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142992</v>
+        <v>49.66399639479181</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181617</v>
+        <v>88.80529410181575</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365666</v>
+        <v>197.4326649365658</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950604</v>
+        <v>322.3541198950592</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289675</v>
+        <v>449.7398382896734</v>
       </c>
       <c r="O4" t="n">
-        <v>551.384871688594</v>
+        <v>551.3848716885921</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546202</v>
+        <v>614.8390752546179</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546202</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546202</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546202</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546202</v>
+        <v>346.6705833050379</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236149</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.941371236149</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="D5" t="n">
-        <v>871.6756726293982</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>871.6756726293982</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>864.7301718801947</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749765</v>
@@ -5026,43 +5026,43 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089267</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686432</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.82776704361</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
         <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>673.3827746590077</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C13" t="n">
-        <v>673.3827746590077</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D13" t="n">
-        <v>523.266135246672</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E13" t="n">
-        <v>523.266135246672</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570251</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590077</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.3827746590077</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="14">
@@ -5257,43 +5257,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867998</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.99303492678</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256235</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
         <v>4260.556453353931</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,28 +5357,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551614</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>369.0989517407039</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3944.053400686432</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4338.82776704361</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,25 +5594,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>120.8250912729021</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>120.8250912729021</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570251</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590077</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154776</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
         <v>3547.201365906985</v>
@@ -5822,22 +5822,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,7 +5849,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5998,13 +5998,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858343</v>
+        <v>1009.141030763746</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>840.2048478358396</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>690.0882084235038</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>542.1751148411107</v>
       </c>
       <c r="F25" t="n">
         <v>409.4810578558177</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858343</v>
+        <v>1190.789495593986</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300.0484256555945</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
         <v>263.2638710736754</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,19 +6399,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
@@ -6420,16 +6420,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858343</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442898</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.49472550168</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>3610.459375831135</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>613.848518831822</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463052</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,28 +6779,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,10 +6922,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686787</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522033</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,19 +7110,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1542.890966501056</v>
@@ -7131,16 +7131,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871642</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,16 +7204,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.5263537034797</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>584.5263537034797</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>434.4097142911439</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>434.4097142911439</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>434.4097142911439</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>266.7068776658629</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.410141987875</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.725653781988</v>
+        <v>1316.616540862233</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.308483745027</v>
+        <v>1027.199370825272</v>
       </c>
       <c r="X40" t="n">
-        <v>805.3189328470098</v>
+        <v>799.2098199272547</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.5263537034797</v>
+        <v>578.4172407837245</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7411,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7438,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,28 +7490,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852379</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9417306852379</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D43" t="n">
-        <v>270.9417306852379</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E43" t="n">
-        <v>270.9417306852379</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F43" t="n">
-        <v>270.9417306852379</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570251</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590077</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154776</v>
+        <v>740.2759625710764</v>
       </c>
     </row>
     <row r="44">
@@ -7642,31 +7642,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871642</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,28 +7727,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1828.498922546691</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1606.732307116217</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>183.0065697095027</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727128</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>102.8529310510287</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792135</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>257.9017284501189</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>132.9990175570132</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701136</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7011105564223</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>314.5564971416988</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7011105564223</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>130.8642865343492</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>32.77382140598547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270143</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>120.4096317666686</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>95.75314679491139</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>14.05393160749114</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>130.8301120625279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.335964134057122</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>219.7622647325754</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.41759119918828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>71.67305053886516</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>183.7210035408839</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>88.75133939439134</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>51.58859379188121</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>152.1350798790573</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>699336.8474531854</v>
+        <v>699336.8474531852</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699336.8474531852</v>
+        <v>699336.8474531854</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699336.8474531852</v>
+        <v>699336.8474531854</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699336.8474531854</v>
+        <v>699336.8474531852</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>699336.8474531854</v>
+        <v>699336.8474531851</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965701</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="G2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965703</v>
       </c>
       <c r="H2" t="n">
         <v>714747.2163965703</v>
@@ -26337,25 +26337,25 @@
         <v>714747.2163965706</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="L2" t="n">
         <v>714747.2163965706</v>
       </c>
       <c r="M2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="N2" t="n">
         <v>714747.2163965706</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>714747.2163965708</v>
       </c>
-      <c r="O2" t="n">
-        <v>714747.2163965704</v>
-      </c>
       <c r="P2" t="n">
-        <v>714747.2163965707</v>
+        <v>714747.2163965706</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106484</v>
+        <v>493391.6844106465</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446873</v>
+        <v>91792.63957447058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832156</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.0985822007</v>
+        <v>21342.09858220114</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659808</v>
+        <v>226943.9547659813</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499375</v>
+      </c>
+      <c r="F4" t="n">
         <v>25090.72367499379</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499385</v>
-      </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140126</v>
+        <v>76261.10613140115</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57659.1524301754</v>
+        <v>-57659.15243017423</v>
       </c>
       <c r="C6" t="n">
-        <v>363221.3693122452</v>
+        <v>363221.3693122433</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867137</v>
+        <v>455014.0088867141</v>
       </c>
       <c r="E6" t="n">
-        <v>-134776.3944278018</v>
+        <v>-134171.6350157693</v>
       </c>
       <c r="F6" t="n">
-        <v>592601.0195656054</v>
+        <v>593205.7789776371</v>
       </c>
       <c r="G6" t="n">
-        <v>592601.0195656052</v>
+        <v>593205.7789776371</v>
       </c>
       <c r="H6" t="n">
-        <v>592601.019565605</v>
+        <v>593205.7789776371</v>
       </c>
       <c r="I6" t="n">
-        <v>592601.0195656052</v>
+        <v>593205.7789776373</v>
       </c>
       <c r="J6" t="n">
-        <v>437874.4838823889</v>
+        <v>438479.2432944216</v>
       </c>
       <c r="K6" t="n">
-        <v>571258.9209834046</v>
+        <v>571863.680395436</v>
       </c>
       <c r="L6" t="n">
-        <v>592601.0195656052</v>
+        <v>593205.7789776373</v>
       </c>
       <c r="M6" t="n">
-        <v>462958.7047266603</v>
+        <v>463563.4641386929</v>
       </c>
       <c r="N6" t="n">
-        <v>592601.0195656054</v>
+        <v>593205.7789776374</v>
       </c>
       <c r="O6" t="n">
-        <v>592601.0195656051</v>
+        <v>593205.7789776375</v>
       </c>
       <c r="P6" t="n">
-        <v>592601.0195656053</v>
+        <v>593205.7789776373</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.35991784355</v>
+        <v>306.3599178435486</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.860002994122039e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.35991784355</v>
+        <v>306.3599178435486</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353667</v>
+        <v>71.38374637353809</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>252.611576489546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>141.0595056537823</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100826</v>
+        <v>59.24433418100845</v>
       </c>
       <c r="S3" t="n">
-        <v>137.4365815217814</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>123.0625685855554</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>46.05426218479505</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.1071065683122</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848772</v>
+        <v>54.30080173848791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731834</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>328.5182178210287</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>86.95894087078148</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047548</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>339.5382092338688</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>77.21616217014099</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672562</v>
+        <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212163</v>
+        <v>12.61309953212157</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452649</v>
+        <v>47.48116877452627</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676342</v>
+        <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015738</v>
+        <v>156.6638408015731</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678778</v>
+        <v>194.3553476787771</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589799</v>
+        <v>216.2577725589789</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095246</v>
+        <v>219.7570494095236</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811555</v>
+        <v>207.5103501811546</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579891</v>
+        <v>177.1052829579883</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709655</v>
+        <v>132.9986917709649</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940664</v>
+        <v>77.36434648940629</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978854</v>
+        <v>28.0650316697884</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216643</v>
+        <v>5.391318755216618</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380494</v>
+        <v>0.09852781277380449</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.658962842154051</v>
+        <v>0.658962842154048</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014125</v>
+        <v>6.364193765014096</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784781</v>
+        <v>22.68797504784771</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403691</v>
+        <v>62.25753764403662</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683583</v>
+        <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966504</v>
+        <v>143.0787521966498</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247347</v>
+        <v>166.966155224734</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302328</v>
+        <v>171.385252530232</v>
       </c>
       <c r="O3" t="n">
-        <v>156.784023238293</v>
+        <v>156.7840232382923</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723819</v>
+        <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338378</v>
+        <v>84.1160287633834</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163487</v>
+        <v>40.91349997163468</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422107</v>
+        <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945494</v>
+        <v>2.656082683945482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276653</v>
+        <v>0.04335281856276633</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865418</v>
+        <v>0.5524523108654155</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967084</v>
+        <v>4.911803272967061</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584367</v>
+        <v>16.61374767584359</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818505</v>
+        <v>39.05837837818487</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509127</v>
+        <v>64.18491393509098</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448225</v>
+        <v>82.13459174448187</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502183</v>
+        <v>86.59941087502143</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361443</v>
+        <v>84.54027044361405</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939593</v>
+        <v>78.08662299395893</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230472</v>
+        <v>66.8165958523044</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437605</v>
+        <v>46.26034759437584</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400324</v>
+        <v>24.84026481400313</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263691</v>
+        <v>9.627737090263645</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515876</v>
+        <v>2.360478055515865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084102</v>
+        <v>0.03013376241084088</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302168</v>
+        <v>92.5810225130212</v>
       </c>
       <c r="K2" t="n">
-        <v>260.719402327758</v>
+        <v>260.7194023277573</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592412</v>
+        <v>376.2501472592403</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245397</v>
+        <v>435.4250728245387</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249178</v>
+        <v>427.6909102249168</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222142</v>
+        <v>358.2123200222132</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742022</v>
+        <v>267.6709953742014</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564207</v>
+        <v>123.00799255642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777905</v>
+        <v>61.51094631777876</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202354</v>
+        <v>375.3647177202348</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527163</v>
+        <v>490.5371850527156</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904529</v>
+        <v>519.3859147904523</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705781</v>
+        <v>197.1943485033505</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076445</v>
+        <v>310.3213621979883</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132114</v>
+        <v>154.211542413211</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920842</v>
+        <v>41.91542210920812</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047984</v>
+        <v>109.724617004798</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>102.671750907999</v>
+        <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>64.0951551171982</v>
+        <v>64.09515511719789</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>501.6149172704004</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>276.3009265578883</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502535</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>656.6637146694906</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>685.3008529699244</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.157696425514</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>684.4630967757939</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>713.3184833610707</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>684.4630967757939</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
